--- a/generacja2/polecenia.xlsx
+++ b/generacja2/polecenia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piotrek\Documents\Ekonomia-egzamin\generacja2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1A0891-EE38-4F51-A592-FCC5618EE7EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FDD314-8318-4A60-990C-22E59E89A9E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C54A60BB-F81D-43D3-B45D-74216973A969}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>\textbf{Zadanie 1.} Wyznacz macierz odwrotną do macierzy \\\\\ $\mathbf{A} =\left[ \begin{array}{ccc}2 &amp; 1&amp; 0\\2&amp; 0&amp; 1\\1 &amp; -1&amp; 1\end{array} \right]$</t>
   </si>
   <si>
-    <t>\\\\\\\textbf{Zadanie 2.}  \\Rozwiąż wzorami Cramera. $\left\{ \begin{array}{ll}x-2y-3z=-1\\ 3x+y+4=2\\2x+3y+z=-1\end{array}\right.$</t>
-  </si>
-  <si>
     <t>\\\\\\\textbf{Zadanie 2.} \\Rozwiąż wzorami Cramera. $\left\{ \begin{array}{ll}x+2y-3z=-3\\ 3x+y+4=2\\2x+3y+z=-2\end{array} \right.$</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>\\\\\\\textbf{Zadanie 4.} \\Oblicz granice funkcji.\\a)$\lim\limits_{x\to 0}\frac{1-\cos(3x)}{\sin^2(4x)}$\ \ \ \ \ \  b)$\lim\limits_{x\to +\infty}\frac{x^2+3}{x+1}$\ \ \ \ \ \ c)$\lim\limits_{x\to +\infty}\left( 1+\frac{1}{x-3}\right)^{2x+3}$</t>
+  </si>
+  <si>
+    <t>\\\\\\\textbf{Zadanie 2.}  \\Rozwiąż wzorami Cramera. $\left\{ \begin{array}{ll}x-2y-3z=-1\\ 3x+y=-2\\2x+3y+z=-1\end{array}\right.$</t>
   </si>
 </sst>
 </file>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5065282D-0462-4AF9-A888-5DA1563F5A69}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,42 +447,42 @@
     </row>
     <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
